--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vtn-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vtn-Itga8.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H2">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I2">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J2">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5253496666666667</v>
+        <v>0.305927</v>
       </c>
       <c r="N2">
-        <v>1.576049</v>
+        <v>0.917781</v>
       </c>
       <c r="O2">
-        <v>0.01837235699974889</v>
+        <v>0.01078151192043695</v>
       </c>
       <c r="P2">
-        <v>0.01837235699974889</v>
+        <v>0.01078151192043695</v>
       </c>
       <c r="Q2">
-        <v>1.062041807753223</v>
+        <v>3.688465166068</v>
       </c>
       <c r="R2">
-        <v>9.558376269779</v>
+        <v>33.196186494612</v>
       </c>
       <c r="S2">
-        <v>0.0002050837035641539</v>
+        <v>0.0006800786302698573</v>
       </c>
       <c r="T2">
-        <v>0.0002050837035641539</v>
+        <v>0.0006800786302698572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H3">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I3">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J3">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.152878000000001</v>
       </c>
       <c r="O3">
-        <v>0.09503992908304168</v>
+        <v>0.09577486496546363</v>
       </c>
       <c r="P3">
-        <v>0.09503992908304168</v>
+        <v>0.09577486496546361</v>
       </c>
       <c r="Q3">
-        <v>5.493926451215335</v>
+        <v>32.765557912184</v>
       </c>
       <c r="R3">
-        <v>49.44533806093801</v>
+        <v>294.890021209656</v>
       </c>
       <c r="S3">
-        <v>0.001060894943587866</v>
+        <v>0.006041308441771245</v>
       </c>
       <c r="T3">
-        <v>0.001060894943587866</v>
+        <v>0.006041308441771244</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H4">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I4">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J4">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>76.05478600000001</v>
       </c>
       <c r="O4">
-        <v>0.8865877139172095</v>
+        <v>0.8934436231140994</v>
       </c>
       <c r="P4">
-        <v>0.8865877139172095</v>
+        <v>0.8934436231140994</v>
       </c>
       <c r="Q4">
-        <v>51.25054006044513</v>
+        <v>305.6561738298747</v>
       </c>
       <c r="R4">
-        <v>461.2548605440061</v>
+        <v>2750.905564468872</v>
       </c>
       <c r="S4">
-        <v>0.009896644829354394</v>
+        <v>0.05635683751172352</v>
       </c>
       <c r="T4">
-        <v>0.009896644829354394</v>
+        <v>0.05635683751172352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>75.421902</v>
       </c>
       <c r="I5">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J5">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5253496666666667</v>
+        <v>0.305927</v>
       </c>
       <c r="N5">
-        <v>1.576049</v>
+        <v>0.917781</v>
       </c>
       <c r="O5">
-        <v>0.01837235699974889</v>
+        <v>0.01078151192043695</v>
       </c>
       <c r="P5">
-        <v>0.01837235699974889</v>
+        <v>0.01078151192043695</v>
       </c>
       <c r="Q5">
-        <v>13.20762369168867</v>
+        <v>7.691198737718</v>
       </c>
       <c r="R5">
-        <v>118.868613225198</v>
+        <v>69.220788639462</v>
       </c>
       <c r="S5">
-        <v>0.002550434796633322</v>
+        <v>0.001418102019994536</v>
       </c>
       <c r="T5">
-        <v>0.002550434796633321</v>
+        <v>0.001418102019994536</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>75.421902</v>
       </c>
       <c r="I6">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J6">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8.152878000000001</v>
       </c>
       <c r="O6">
-        <v>0.09503992908304168</v>
+        <v>0.09577486496546363</v>
       </c>
       <c r="P6">
-        <v>0.09503992908304168</v>
+        <v>0.09577486496546361</v>
       </c>
       <c r="Q6">
         <v>68.32284061488402</v>
@@ -818,10 +818,10 @@
         <v>614.9055655339561</v>
       </c>
       <c r="S6">
-        <v>0.01319336121142571</v>
+        <v>0.01259735466366052</v>
       </c>
       <c r="T6">
-        <v>0.01319336121142571</v>
+        <v>0.01259735466366052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>75.421902</v>
       </c>
       <c r="I7">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J7">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>76.05478600000001</v>
       </c>
       <c r="O7">
-        <v>0.8865877139172095</v>
+        <v>0.8934436231140994</v>
       </c>
       <c r="P7">
-        <v>0.8865877139172095</v>
+        <v>0.8934436231140994</v>
       </c>
       <c r="Q7">
         <v>637.3551795914415</v>
@@ -880,10 +880,10 @@
         <v>5736.196616322973</v>
       </c>
       <c r="S7">
-        <v>0.1230753438915293</v>
+        <v>0.1175154483006863</v>
       </c>
       <c r="T7">
-        <v>0.1230753438915292</v>
+        <v>0.1175154483006863</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>153.9412893333333</v>
       </c>
       <c r="H8">
-        <v>461.823868</v>
+        <v>461.8238680000001</v>
       </c>
       <c r="I8">
-        <v>0.8500182366239053</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="J8">
-        <v>0.8500182366239052</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5253496666666667</v>
+        <v>0.305927</v>
       </c>
       <c r="N8">
-        <v>1.576049</v>
+        <v>0.917781</v>
       </c>
       <c r="O8">
-        <v>0.01837235699974889</v>
+        <v>0.01078151192043695</v>
       </c>
       <c r="P8">
-        <v>0.01837235699974889</v>
+        <v>0.01078151192043695</v>
       </c>
       <c r="Q8">
-        <v>80.87300503750357</v>
+        <v>47.09479682187867</v>
       </c>
       <c r="R8">
-        <v>727.857045337532</v>
+        <v>423.853171396908</v>
       </c>
       <c r="S8">
-        <v>0.01561683849955142</v>
+        <v>0.008683331270172557</v>
       </c>
       <c r="T8">
-        <v>0.01561683849955141</v>
+        <v>0.008683331270172555</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>153.9412893333333</v>
       </c>
       <c r="H9">
-        <v>461.823868</v>
+        <v>461.8238680000001</v>
       </c>
       <c r="I9">
-        <v>0.8500182366239053</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="J9">
-        <v>0.8500182366239052</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>8.152878000000001</v>
       </c>
       <c r="O9">
-        <v>0.09503992908304168</v>
+        <v>0.09577486496546363</v>
       </c>
       <c r="P9">
-        <v>0.09503992908304168</v>
+        <v>0.09577486496546361</v>
       </c>
       <c r="Q9">
         <v>418.3548503657894</v>
       </c>
       <c r="R9">
-        <v>3765.193653292104</v>
+        <v>3765.193653292105</v>
       </c>
       <c r="S9">
-        <v>0.0807856729280281</v>
+        <v>0.07713620186003187</v>
       </c>
       <c r="T9">
-        <v>0.08078567292802809</v>
+        <v>0.07713620186003185</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>153.9412893333333</v>
       </c>
       <c r="H10">
-        <v>461.823868</v>
+        <v>461.8238680000001</v>
       </c>
       <c r="I10">
-        <v>0.8500182366239053</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="J10">
-        <v>0.8500182366239052</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>76.05478600000001</v>
       </c>
       <c r="O10">
-        <v>0.8865877139172095</v>
+        <v>0.8934436231140994</v>
       </c>
       <c r="P10">
-        <v>0.8865877139172095</v>
+        <v>0.8934436231140994</v>
       </c>
       <c r="Q10">
         <v>3902.65727227025</v>
       </c>
       <c r="R10">
-        <v>35123.91545043225</v>
+        <v>35123.91545043226</v>
       </c>
       <c r="S10">
-        <v>0.7536157251963258</v>
+        <v>0.7195713373016897</v>
       </c>
       <c r="T10">
-        <v>0.7536157251963257</v>
+        <v>0.7195713373016897</v>
       </c>
     </row>
   </sheetData>
